--- a/assets/images/2024/06/state-management-2024.xlsx
+++ b/assets/images/2024/06/state-management-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adhal\source\repos\apps-on-azure-blog\assets\images\2024\06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14ABB2CA-9AD6-4E95-9C1D-E43CE6278AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB40F887-AD1D-42C6-9B3D-48BB56DF9D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16590" yWindow="225" windowWidth="21585" windowHeight="15345" xr2:uid="{77D927F4-7513-40B3-91A0-7AD9D8CDDB7A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Category</t>
   </si>
@@ -50,18 +50,12 @@
     <t>* Ease of use / developer experience.</t>
   </si>
   <si>
-    <t>* Integration with standard React libraries.</t>
-  </si>
-  <si>
     <t>* Tutorial quality.</t>
   </si>
   <si>
     <t>* Documentation quality - beginner.</t>
   </si>
   <si>
-    <t>* Documentation quality - intermediate to advanced.</t>
-  </si>
-  <si>
     <t>* API documentation.</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>* Community resource availability.</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>Zustand</t>
   </si>
   <si>
@@ -96,13 +87,25 @@
   </si>
   <si>
     <t>useContext</t>
+  </si>
+  <si>
+    <t>* Documentation quality - intermediate.</t>
+  </si>
+  <si>
+    <t>* Ease of persisting to in-browser local storage.</t>
+  </si>
+  <si>
+    <t>* Ease of data-fetching from a remote service.</t>
+  </si>
+  <si>
+    <t>TOTALS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,21 +481,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2839048-CA23-483C-BFAE-11445C835FE9}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.625" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,124 +506,124 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
         <v>8</v>
       </c>
-      <c r="J2" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4</v>
-      </c>
       <c r="H4" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -628,144 +631,144 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
       </c>
       <c r="F5" s="1">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
         <v>8</v>
       </c>
-      <c r="G5" s="1">
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1">
-        <v>6</v>
-      </c>
-      <c r="J6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>9</v>
-      </c>
-      <c r="I7" s="1">
-        <v>7</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -774,83 +777,115 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="1">
-        <v>4</v>
-      </c>
-      <c r="H10" s="1">
-        <v>6</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
         <v>5</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <f>SUM(B2:B10)</f>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <f>SUM(B2:B11)</f>
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <f>C2*$B2+C3*$B3+C4*$B4+C5*$B5+C6*$B6+C7*$B7+C8*$B8+C9*$B9+C10*$B10</f>
-        <v>73.5</v>
-      </c>
-      <c r="D12" s="1">
-        <f>D2*$B2+D3*$B3+D4*$B4+D5*$B5+D6*$B6+D7*$B7+D8*$B8+D9*$B9+D10*$B10</f>
-        <v>25.299999999999997</v>
-      </c>
-      <c r="E12" s="1">
-        <f>E2*$B2+E3*$B3+E4*$B4+E5*$B5+E6*$B6+E7*$B7+E8*$B8+E9*$B9+E10*$B10</f>
-        <v>51.3</v>
-      </c>
-      <c r="F12" s="1">
-        <f>F2*$B2+F3*$B3+F4*$B4+F5*$B5+F6*$B6+F7*$B7+F8*$B8+F9*$B9+F10*$B10</f>
-        <v>56.7</v>
-      </c>
-      <c r="G12" s="1">
-        <f>G2*$B2+G3*$B3+G4*$B4+G5*$B5+G6*$B6+G7*$B7+G8*$B8+G9*$B9+G10*$B10</f>
-        <v>52</v>
-      </c>
-      <c r="H12" s="1">
-        <f>H2*$B2+H3*$B3+H4*$B4+H5*$B5+H6*$B6+H7*$B7+H8*$B8+H9*$B9+H10*$B10</f>
-        <v>53</v>
-      </c>
-      <c r="I12" s="1">
-        <f>I2*$B2+I3*$B3+I4*$B4+I5*$B5+I6*$B6+I7*$B7+I8*$B8+I9*$B9+I10*$B10</f>
-        <v>58.5</v>
-      </c>
-      <c r="J12" s="1">
-        <f>J2*$B2+J3*$B3+J4*$B4+J5*$B5+J6*$B6+J7*$B7+J8*$B8+J9*$B9+J10*$B10</f>
-        <v>48.7</v>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:J13" si="0">C3*$B3+C4*$B4+C5*$B5+C6*$B6+C7*$B7+C8*$B8+C9*$B9+C10*$B10+C11*$B11</f>
+        <v>61</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
